--- a/database/industries/siman/save/official/quarterly.xlsx
+++ b/database/industries/siman/save/official/quarterly.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="9450"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>ساوه-سیمان ساوه</t>

--- a/database/industries/siman/save/official/quarterly.xlsx
+++ b/database/industries/siman/save/official/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\save\official\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75943B6B-421E-417B-A414-51434C600D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>ساوه-سیمان ساوه</t>
@@ -93,7 +94,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -257,7 +258,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -269,7 +270,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -316,6 +317,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -351,6 +369,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -502,17 +537,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -522,7 +557,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -534,7 +569,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -546,7 +581,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -556,7 +591,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -568,7 +603,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -580,7 +615,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -590,7 +625,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -612,7 +647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -622,7 +657,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -644,7 +679,7 @@
         <v>142896</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
@@ -666,7 +701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -688,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>12</v>
       </c>
@@ -710,7 +745,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -732,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>14</v>
       </c>
@@ -754,7 +789,7 @@
         <v>8768</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -776,7 +811,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -798,7 +833,7 @@
         <v>41113</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>17</v>
       </c>
@@ -820,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -842,7 +877,7 @@
         <v>-7835</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>19</v>
       </c>
@@ -864,7 +899,7 @@
         <v>187732</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -874,7 +909,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -884,7 +919,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -894,7 +929,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
@@ -916,7 +951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -926,7 +961,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>21</v>
       </c>
@@ -948,7 +983,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>22</v>
       </c>
@@ -970,7 +1005,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -980,7 +1015,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -990,7 +1025,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1000,7 +1035,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>

--- a/database/industries/siman/save/official/quarterly.xlsx
+++ b/database/industries/siman/save/official/quarterly.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\save\official\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\siman\save\official\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75943B6B-421E-417B-A414-51434C600D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3690" yWindow="2745" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -34,9 +33,6 @@
     <t>هزینه های عمومی و اداری</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -89,13 +85,20 @@
   </si>
   <si>
     <t>تعداد پرسنل تولیدی شرکت</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1401/09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
@@ -124,6 +127,11 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Calibri Bold"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -186,10 +194,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -224,8 +233,13 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -537,17 +551,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -555,9 +572,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -567,9 +583,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -579,9 +594,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -589,9 +603,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -601,9 +614,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -613,9 +625,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -623,9 +634,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -644,10 +654,10 @@
         <v>7</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -655,11 +665,10 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -673,15 +682,15 @@
         <v>0</v>
       </c>
       <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
         <v>142896</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I10" s="14">
+        <v>664256</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -697,13 +706,13 @@
       <c r="H11" s="11">
         <v>0</v>
       </c>
-      <c r="I11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I11" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -716,38 +725,38 @@
       <c r="G12" s="9">
         <v>0</v>
       </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>2737</v>
+        <v>-2915</v>
       </c>
       <c r="F13" s="11">
-        <v>-2915</v>
+        <v>1292</v>
       </c>
       <c r="G13" s="11">
-        <v>1292</v>
+        <v>30</v>
       </c>
       <c r="H13" s="11">
-        <v>30</v>
-      </c>
-      <c r="I13" s="11">
         <v>290</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I13" s="15">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -763,79 +772,79 @@
       <c r="H14" s="9">
         <v>0</v>
       </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I14" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>-82</v>
+        <v>523</v>
       </c>
       <c r="F15" s="11">
-        <v>523</v>
+        <v>173</v>
       </c>
       <c r="G15" s="11">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="H15" s="11">
-        <v>13</v>
-      </c>
-      <c r="I15" s="11">
         <v>8768</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I15" s="15">
+        <v>-8671</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>703</v>
+        <v>764</v>
       </c>
       <c r="F16" s="9">
-        <v>764</v>
+        <v>975</v>
       </c>
       <c r="G16" s="9">
-        <v>975</v>
+        <v>786</v>
       </c>
       <c r="H16" s="9">
-        <v>786</v>
-      </c>
-      <c r="I16" s="9">
         <v>2500</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I16" s="15">
+        <v>3672</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>20568</v>
+        <v>20034</v>
       </c>
       <c r="F17" s="11">
-        <v>20034</v>
+        <v>20039</v>
       </c>
       <c r="G17" s="11">
-        <v>20039</v>
+        <v>42258</v>
       </c>
       <c r="H17" s="11">
-        <v>42258</v>
-      </c>
-      <c r="I17" s="11">
         <v>41113</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I17" s="15">
+        <v>30341</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -851,55 +860,56 @@
       <c r="H18" s="9">
         <v>0</v>
       </c>
-      <c r="I18" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>166230</v>
+        <v>75670</v>
       </c>
       <c r="F19" s="11">
-        <v>75670</v>
+        <v>136214</v>
       </c>
       <c r="G19" s="11">
-        <v>136214</v>
+        <v>104716</v>
       </c>
       <c r="H19" s="11">
-        <v>104716</v>
-      </c>
-      <c r="I19" s="11">
         <v>-7835</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I19" s="15">
+        <v>19440</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>190156</v>
+        <v>94076</v>
       </c>
       <c r="F20" s="13">
-        <v>94076</v>
+        <v>158693</v>
       </c>
       <c r="G20" s="13">
-        <v>158693</v>
+        <v>147803</v>
       </c>
       <c r="H20" s="13">
-        <v>147803</v>
-      </c>
-      <c r="I20" s="13">
         <v>187732</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I20" s="14">
+        <f>SUM(I10:I19)</f>
+        <v>709440</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -907,9 +917,8 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -917,9 +926,8 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -927,11 +935,10 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -948,10 +955,10 @@
         <v>7</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -959,53 +966,52 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
-        <v>71</v>
+        <v>410</v>
       </c>
       <c r="F26" s="9">
-        <v>410</v>
+        <v>551</v>
       </c>
       <c r="G26" s="9">
-        <v>551</v>
+        <v>629</v>
       </c>
       <c r="H26" s="9">
-        <v>629</v>
+        <v>574</v>
       </c>
       <c r="I26" s="9">
         <v>574</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>406</v>
+        <v>66</v>
       </c>
       <c r="F27" s="11">
+        <v>144</v>
+      </c>
+      <c r="G27" s="11">
         <v>66</v>
       </c>
-      <c r="G27" s="11">
-        <v>144</v>
-      </c>
       <c r="H27" s="11">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="I27" s="11">
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1013,9 +1019,8 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1023,9 +1028,8 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1033,9 +1037,8 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1043,7 +1046,6 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/siman/save/official/quarterly.xlsx
+++ b/database/industries/siman/save/official/quarterly.xlsx
@@ -2,24 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\siman\save\official\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="2745" windowWidth="17280" windowHeight="8970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -33,6 +33,24 @@
     <t>هزینه های عمومی و اداری</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -85,20 +103,13 @@
   </si>
   <si>
     <t>تعداد پرسنل تولیدی شرکت</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1401/09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
@@ -127,11 +138,6 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Calibri Bold"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -194,11 +200,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -233,13 +238,8 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -272,7 +272,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -284,7 +284,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -331,23 +331,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -383,23 +366,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -552,19 +518,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I31"/>
+  <dimension ref="B1:N31"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -572,8 +535,14 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -583,8 +552,14 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -594,8 +569,14 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -603,8 +584,14 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -614,8 +601,14 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -625,8 +618,14 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -634,8 +633,14 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -654,10 +659,25 @@
         <v>7</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -665,32 +685,53 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>0</v>
+        <v>128619</v>
       </c>
       <c r="F10" s="9">
-        <v>0</v>
+        <v>123320</v>
       </c>
       <c r="G10" s="9">
-        <v>0</v>
+        <v>120723</v>
       </c>
       <c r="H10" s="9">
+        <v>-372662</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
         <v>142896</v>
       </c>
-      <c r="I10" s="14">
-        <v>664256</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -706,13 +747,28 @@
       <c r="H11" s="11">
         <v>0</v>
       </c>
-      <c r="I11" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -725,38 +781,68 @@
       <c r="G12" s="9">
         <v>0</v>
       </c>
-      <c r="H12" s="11">
-        <v>0</v>
-      </c>
-      <c r="I12" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>290</v>
+      </c>
+      <c r="F13" s="11">
+        <v>115</v>
+      </c>
+      <c r="G13" s="11">
+        <v>965</v>
+      </c>
+      <c r="H13" s="11">
+        <v>343</v>
+      </c>
+      <c r="I13" s="11">
+        <v>178</v>
+      </c>
+      <c r="J13" s="11">
+        <v>2737</v>
+      </c>
+      <c r="K13" s="11">
         <v>-2915</v>
       </c>
-      <c r="F13" s="11">
+      <c r="L13" s="11">
         <v>1292</v>
       </c>
-      <c r="G13" s="11">
+      <c r="M13" s="11">
         <v>30</v>
       </c>
-      <c r="H13" s="11">
+      <c r="N13" s="11">
         <v>290</v>
       </c>
-      <c r="I13" s="15">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -772,79 +858,139 @@
       <c r="H14" s="9">
         <v>0</v>
       </c>
-      <c r="I14" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
+        <v>16</v>
+      </c>
+      <c r="F15" s="11">
+        <v>122</v>
+      </c>
+      <c r="G15" s="11">
+        <v>-14</v>
+      </c>
+      <c r="H15" s="11">
+        <v>46</v>
+      </c>
+      <c r="I15" s="11">
+        <v>82</v>
+      </c>
+      <c r="J15" s="11">
+        <v>-82</v>
+      </c>
+      <c r="K15" s="11">
         <v>523</v>
       </c>
-      <c r="F15" s="11">
+      <c r="L15" s="11">
         <v>173</v>
       </c>
-      <c r="G15" s="11">
+      <c r="M15" s="11">
         <v>13</v>
       </c>
-      <c r="H15" s="11">
+      <c r="N15" s="11">
         <v>8768</v>
       </c>
-      <c r="I15" s="15">
-        <v>-8671</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>590</v>
+      </c>
+      <c r="F16" s="9">
+        <v>548</v>
+      </c>
+      <c r="G16" s="9">
+        <v>487</v>
+      </c>
+      <c r="H16" s="9">
+        <v>573</v>
+      </c>
+      <c r="I16" s="9">
+        <v>571</v>
+      </c>
+      <c r="J16" s="9">
+        <v>703</v>
+      </c>
+      <c r="K16" s="9">
         <v>764</v>
       </c>
-      <c r="F16" s="9">
+      <c r="L16" s="9">
         <v>975</v>
       </c>
-      <c r="G16" s="9">
+      <c r="M16" s="9">
         <v>786</v>
       </c>
-      <c r="H16" s="9">
+      <c r="N16" s="9">
         <v>2500</v>
       </c>
-      <c r="I16" s="15">
-        <v>3672</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
+        <v>16675</v>
+      </c>
+      <c r="F17" s="11">
+        <v>14911</v>
+      </c>
+      <c r="G17" s="11">
+        <v>13463</v>
+      </c>
+      <c r="H17" s="11">
+        <v>16512</v>
+      </c>
+      <c r="I17" s="11">
+        <v>23083</v>
+      </c>
+      <c r="J17" s="11">
+        <v>20568</v>
+      </c>
+      <c r="K17" s="11">
         <v>20034</v>
       </c>
-      <c r="F17" s="11">
+      <c r="L17" s="11">
         <v>20039</v>
       </c>
-      <c r="G17" s="11">
+      <c r="M17" s="11">
         <v>42258</v>
       </c>
-      <c r="H17" s="11">
+      <c r="N17" s="11">
         <v>41113</v>
       </c>
-      <c r="I17" s="15">
-        <v>30341</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -860,56 +1006,100 @@
       <c r="H18" s="9">
         <v>0</v>
       </c>
-      <c r="I18" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
+        <v>15287</v>
+      </c>
+      <c r="F19" s="11">
+        <v>-5410</v>
+      </c>
+      <c r="G19" s="11">
+        <v>24708</v>
+      </c>
+      <c r="H19" s="11">
+        <v>788070</v>
+      </c>
+      <c r="I19" s="11">
+        <v>266155</v>
+      </c>
+      <c r="J19" s="11">
+        <v>166230</v>
+      </c>
+      <c r="K19" s="11">
         <v>75670</v>
       </c>
-      <c r="F19" s="11">
+      <c r="L19" s="11">
         <v>136214</v>
       </c>
-      <c r="G19" s="11">
+      <c r="M19" s="11">
         <v>104716</v>
       </c>
-      <c r="H19" s="11">
+      <c r="N19" s="11">
         <v>-7835</v>
       </c>
-      <c r="I19" s="15">
-        <v>19440</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
+        <v>161477</v>
+      </c>
+      <c r="F20" s="13">
+        <v>133606</v>
+      </c>
+      <c r="G20" s="13">
+        <v>160332</v>
+      </c>
+      <c r="H20" s="13">
+        <v>432882</v>
+      </c>
+      <c r="I20" s="13">
+        <v>290069</v>
+      </c>
+      <c r="J20" s="13">
+        <v>190156</v>
+      </c>
+      <c r="K20" s="13">
         <v>94076</v>
       </c>
-      <c r="F20" s="13">
+      <c r="L20" s="13">
         <v>158693</v>
       </c>
-      <c r="G20" s="13">
+      <c r="M20" s="13">
         <v>147803</v>
       </c>
-      <c r="H20" s="13">
+      <c r="N20" s="13">
         <v>187732</v>
       </c>
-      <c r="I20" s="14">
-        <f>SUM(I10:I19)</f>
-        <v>709440</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -917,8 +1107,14 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -926,8 +1122,14 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -935,10 +1137,16 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -955,10 +1163,25 @@
         <v>7</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -966,52 +1189,88 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
+        <v>395</v>
+      </c>
+      <c r="F26" s="9">
+        <v>400</v>
+      </c>
+      <c r="G26" s="9">
+        <v>398</v>
+      </c>
+      <c r="H26" s="9">
         <v>410</v>
       </c>
-      <c r="F26" s="9">
+      <c r="I26" s="9">
+        <v>431</v>
+      </c>
+      <c r="J26" s="9">
+        <v>71</v>
+      </c>
+      <c r="K26" s="9">
+        <v>410</v>
+      </c>
+      <c r="L26" s="9">
         <v>551</v>
       </c>
-      <c r="G26" s="9">
+      <c r="M26" s="9">
         <v>629</v>
       </c>
-      <c r="H26" s="9">
+      <c r="N26" s="9">
         <v>574</v>
       </c>
-      <c r="I26" s="9">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
+        <v>86</v>
+      </c>
+      <c r="F27" s="11">
+        <v>82</v>
+      </c>
+      <c r="G27" s="11">
+        <v>83</v>
+      </c>
+      <c r="H27" s="11">
         <v>66</v>
       </c>
-      <c r="F27" s="11">
+      <c r="I27" s="11">
+        <v>38</v>
+      </c>
+      <c r="J27" s="11">
+        <v>406</v>
+      </c>
+      <c r="K27" s="11">
+        <v>66</v>
+      </c>
+      <c r="L27" s="11">
         <v>144</v>
       </c>
-      <c r="G27" s="11">
+      <c r="M27" s="11">
         <v>66</v>
       </c>
-      <c r="H27" s="11">
+      <c r="N27" s="11">
         <v>141</v>
       </c>
-      <c r="I27" s="11">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1019,8 +1278,14 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1028,8 +1293,14 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1037,8 +1308,14 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1046,6 +1323,12 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/siman/save/official/quarterly.xlsx
+++ b/database/industries/siman/save/official/quarterly.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\siman\save\official\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\save\official\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACA84C7-6932-45F9-9AA8-5CE8EB92AFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="2745" windowWidth="17280" windowHeight="8970"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -33,6 +34,24 @@
     <t>هزینه های عمومی و اداری</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -85,20 +104,13 @@
   </si>
   <si>
     <t>تعداد پرسنل تولیدی شرکت</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1401/09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
@@ -127,11 +139,6 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Calibri Bold"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -194,11 +201,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -233,13 +239,8 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -551,20 +552,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:N31"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -572,8 +570,14 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -583,8 +587,14 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -594,8 +604,14 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -603,8 +619,14 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -614,8 +636,14 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -625,8 +653,14 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -634,8 +668,14 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -654,10 +694,25 @@
         <v>7</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -665,32 +720,53 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>0</v>
+        <v>128619</v>
       </c>
       <c r="F10" s="9">
-        <v>0</v>
+        <v>123320</v>
       </c>
       <c r="G10" s="9">
-        <v>0</v>
+        <v>120723</v>
       </c>
       <c r="H10" s="9">
+        <v>-372662</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
         <v>142896</v>
       </c>
-      <c r="I10" s="14">
-        <v>664256</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -706,13 +782,28 @@
       <c r="H11" s="11">
         <v>0</v>
       </c>
-      <c r="I11" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -725,38 +816,68 @@
       <c r="G12" s="9">
         <v>0</v>
       </c>
-      <c r="H12" s="11">
-        <v>0</v>
-      </c>
-      <c r="I12" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>290</v>
+      </c>
+      <c r="F13" s="11">
+        <v>115</v>
+      </c>
+      <c r="G13" s="11">
+        <v>965</v>
+      </c>
+      <c r="H13" s="11">
+        <v>343</v>
+      </c>
+      <c r="I13" s="11">
+        <v>178</v>
+      </c>
+      <c r="J13" s="11">
+        <v>2737</v>
+      </c>
+      <c r="K13" s="11">
         <v>-2915</v>
       </c>
-      <c r="F13" s="11">
+      <c r="L13" s="11">
         <v>1292</v>
       </c>
-      <c r="G13" s="11">
+      <c r="M13" s="11">
         <v>30</v>
       </c>
-      <c r="H13" s="11">
+      <c r="N13" s="11">
         <v>290</v>
       </c>
-      <c r="I13" s="15">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -772,79 +893,139 @@
       <c r="H14" s="9">
         <v>0</v>
       </c>
-      <c r="I14" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
+        <v>16</v>
+      </c>
+      <c r="F15" s="11">
+        <v>122</v>
+      </c>
+      <c r="G15" s="11">
+        <v>-14</v>
+      </c>
+      <c r="H15" s="11">
+        <v>46</v>
+      </c>
+      <c r="I15" s="11">
+        <v>82</v>
+      </c>
+      <c r="J15" s="11">
+        <v>-82</v>
+      </c>
+      <c r="K15" s="11">
         <v>523</v>
       </c>
-      <c r="F15" s="11">
+      <c r="L15" s="11">
         <v>173</v>
       </c>
-      <c r="G15" s="11">
+      <c r="M15" s="11">
         <v>13</v>
       </c>
-      <c r="H15" s="11">
+      <c r="N15" s="11">
         <v>8768</v>
       </c>
-      <c r="I15" s="15">
-        <v>-8671</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>590</v>
+      </c>
+      <c r="F16" s="9">
+        <v>548</v>
+      </c>
+      <c r="G16" s="9">
+        <v>487</v>
+      </c>
+      <c r="H16" s="9">
+        <v>573</v>
+      </c>
+      <c r="I16" s="9">
+        <v>571</v>
+      </c>
+      <c r="J16" s="9">
+        <v>703</v>
+      </c>
+      <c r="K16" s="9">
         <v>764</v>
       </c>
-      <c r="F16" s="9">
+      <c r="L16" s="9">
         <v>975</v>
       </c>
-      <c r="G16" s="9">
+      <c r="M16" s="9">
         <v>786</v>
       </c>
-      <c r="H16" s="9">
+      <c r="N16" s="9">
         <v>2500</v>
       </c>
-      <c r="I16" s="15">
-        <v>3672</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
+        <v>16675</v>
+      </c>
+      <c r="F17" s="11">
+        <v>14911</v>
+      </c>
+      <c r="G17" s="11">
+        <v>13463</v>
+      </c>
+      <c r="H17" s="11">
+        <v>16512</v>
+      </c>
+      <c r="I17" s="11">
+        <v>23083</v>
+      </c>
+      <c r="J17" s="11">
+        <v>20568</v>
+      </c>
+      <c r="K17" s="11">
         <v>20034</v>
       </c>
-      <c r="F17" s="11">
+      <c r="L17" s="11">
         <v>20039</v>
       </c>
-      <c r="G17" s="11">
+      <c r="M17" s="11">
         <v>42258</v>
       </c>
-      <c r="H17" s="11">
+      <c r="N17" s="11">
         <v>41113</v>
       </c>
-      <c r="I17" s="15">
-        <v>30341</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -860,56 +1041,100 @@
       <c r="H18" s="9">
         <v>0</v>
       </c>
-      <c r="I18" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
+        <v>15287</v>
+      </c>
+      <c r="F19" s="11">
+        <v>-5410</v>
+      </c>
+      <c r="G19" s="11">
+        <v>24708</v>
+      </c>
+      <c r="H19" s="11">
+        <v>788070</v>
+      </c>
+      <c r="I19" s="11">
+        <v>266155</v>
+      </c>
+      <c r="J19" s="11">
+        <v>166230</v>
+      </c>
+      <c r="K19" s="11">
         <v>75670</v>
       </c>
-      <c r="F19" s="11">
+      <c r="L19" s="11">
         <v>136214</v>
       </c>
-      <c r="G19" s="11">
+      <c r="M19" s="11">
         <v>104716</v>
       </c>
-      <c r="H19" s="11">
+      <c r="N19" s="11">
         <v>-7835</v>
       </c>
-      <c r="I19" s="15">
-        <v>19440</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
+        <v>161477</v>
+      </c>
+      <c r="F20" s="13">
+        <v>133606</v>
+      </c>
+      <c r="G20" s="13">
+        <v>160332</v>
+      </c>
+      <c r="H20" s="13">
+        <v>432882</v>
+      </c>
+      <c r="I20" s="13">
+        <v>290069</v>
+      </c>
+      <c r="J20" s="13">
+        <v>190156</v>
+      </c>
+      <c r="K20" s="13">
         <v>94076</v>
       </c>
-      <c r="F20" s="13">
+      <c r="L20" s="13">
         <v>158693</v>
       </c>
-      <c r="G20" s="13">
+      <c r="M20" s="13">
         <v>147803</v>
       </c>
-      <c r="H20" s="13">
+      <c r="N20" s="13">
         <v>187732</v>
       </c>
-      <c r="I20" s="14">
-        <f>SUM(I10:I19)</f>
-        <v>709440</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -917,8 +1142,14 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -926,8 +1157,14 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -935,10 +1172,16 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -955,10 +1198,25 @@
         <v>7</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -966,52 +1224,88 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
+        <v>395</v>
+      </c>
+      <c r="F26" s="9">
+        <v>400</v>
+      </c>
+      <c r="G26" s="9">
+        <v>398</v>
+      </c>
+      <c r="H26" s="9">
         <v>410</v>
       </c>
-      <c r="F26" s="9">
+      <c r="I26" s="9">
+        <v>431</v>
+      </c>
+      <c r="J26" s="9">
+        <v>71</v>
+      </c>
+      <c r="K26" s="9">
+        <v>410</v>
+      </c>
+      <c r="L26" s="9">
         <v>551</v>
       </c>
-      <c r="G26" s="9">
+      <c r="M26" s="9">
         <v>629</v>
       </c>
-      <c r="H26" s="9">
+      <c r="N26" s="9">
         <v>574</v>
       </c>
-      <c r="I26" s="9">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
+        <v>86</v>
+      </c>
+      <c r="F27" s="11">
+        <v>82</v>
+      </c>
+      <c r="G27" s="11">
+        <v>83</v>
+      </c>
+      <c r="H27" s="11">
         <v>66</v>
       </c>
-      <c r="F27" s="11">
+      <c r="I27" s="11">
+        <v>38</v>
+      </c>
+      <c r="J27" s="11">
+        <v>406</v>
+      </c>
+      <c r="K27" s="11">
+        <v>66</v>
+      </c>
+      <c r="L27" s="11">
         <v>144</v>
       </c>
-      <c r="G27" s="11">
+      <c r="M27" s="11">
         <v>66</v>
       </c>
-      <c r="H27" s="11">
+      <c r="N27" s="11">
         <v>141</v>
       </c>
-      <c r="I27" s="11">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1019,8 +1313,14 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1028,8 +1328,14 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1037,8 +1343,14 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1046,6 +1358,12 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/siman/save/official/quarterly.xlsx
+++ b/database/industries/siman/save/official/quarterly.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\save\official\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\save\official\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACA84C7-6932-45F9-9AA8-5CE8EB92AFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -34,9 +33,6 @@
     <t>هزینه های عمومی و اداری</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
     <t>فصل دوم منتهی به 1399/06</t>
   </si>
   <si>
@@ -62,6 +58,9 @@
   </si>
   <si>
     <t>فصل دوم منتهی به 1401/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
     <t>هزینه حمل و نقل و انتقال</t>
@@ -109,7 +108,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -273,7 +272,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -285,7 +284,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -332,23 +331,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -384,23 +366,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -552,7 +517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -734,16 +699,16 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>128619</v>
+        <v>123320</v>
       </c>
       <c r="F10" s="9">
-        <v>123320</v>
+        <v>120723</v>
       </c>
       <c r="G10" s="9">
-        <v>120723</v>
+        <v>-372662</v>
       </c>
       <c r="H10" s="9">
-        <v>-372662</v>
+        <v>0</v>
       </c>
       <c r="I10" s="9">
         <v>0</v>
@@ -758,10 +723,10 @@
         <v>0</v>
       </c>
       <c r="M10" s="9">
-        <v>0</v>
+        <v>142896</v>
       </c>
       <c r="N10" s="9">
-        <v>142896</v>
+        <v>664256</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
@@ -845,34 +810,34 @@
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>115</v>
+      </c>
+      <c r="F13" s="11">
+        <v>965</v>
+      </c>
+      <c r="G13" s="11">
+        <v>343</v>
+      </c>
+      <c r="H13" s="11">
+        <v>178</v>
+      </c>
+      <c r="I13" s="11">
+        <v>2737</v>
+      </c>
+      <c r="J13" s="11">
+        <v>-2915</v>
+      </c>
+      <c r="K13" s="11">
+        <v>1292</v>
+      </c>
+      <c r="L13" s="11">
+        <v>30</v>
+      </c>
+      <c r="M13" s="11">
         <v>290</v>
       </c>
-      <c r="F13" s="11">
-        <v>115</v>
-      </c>
-      <c r="G13" s="11">
-        <v>965</v>
-      </c>
-      <c r="H13" s="11">
-        <v>343</v>
-      </c>
-      <c r="I13" s="11">
-        <v>178</v>
-      </c>
-      <c r="J13" s="11">
-        <v>2737</v>
-      </c>
-      <c r="K13" s="11">
-        <v>-2915</v>
-      </c>
-      <c r="L13" s="11">
-        <v>1292</v>
-      </c>
-      <c r="M13" s="11">
-        <v>30</v>
-      </c>
       <c r="N13" s="11">
-        <v>290</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
@@ -919,34 +884,34 @@
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="F15" s="11">
-        <v>122</v>
+        <v>-14</v>
       </c>
       <c r="G15" s="11">
-        <v>-14</v>
+        <v>46</v>
       </c>
       <c r="H15" s="11">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="I15" s="11">
-        <v>82</v>
+        <v>-82</v>
       </c>
       <c r="J15" s="11">
-        <v>-82</v>
+        <v>523</v>
       </c>
       <c r="K15" s="11">
-        <v>523</v>
+        <v>173</v>
       </c>
       <c r="L15" s="11">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="M15" s="11">
-        <v>13</v>
+        <v>8768</v>
       </c>
       <c r="N15" s="11">
-        <v>8768</v>
+        <v>-8671</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -956,34 +921,34 @@
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>590</v>
+        <v>548</v>
       </c>
       <c r="F16" s="9">
-        <v>548</v>
+        <v>487</v>
       </c>
       <c r="G16" s="9">
-        <v>487</v>
+        <v>573</v>
       </c>
       <c r="H16" s="9">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I16" s="9">
-        <v>571</v>
+        <v>703</v>
       </c>
       <c r="J16" s="9">
-        <v>703</v>
+        <v>764</v>
       </c>
       <c r="K16" s="9">
-        <v>764</v>
+        <v>975</v>
       </c>
       <c r="L16" s="9">
-        <v>975</v>
+        <v>786</v>
       </c>
       <c r="M16" s="9">
-        <v>786</v>
+        <v>2500</v>
       </c>
       <c r="N16" s="9">
-        <v>2500</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
@@ -993,34 +958,34 @@
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>16675</v>
+        <v>14911</v>
       </c>
       <c r="F17" s="11">
-        <v>14911</v>
+        <v>13463</v>
       </c>
       <c r="G17" s="11">
-        <v>13463</v>
+        <v>16512</v>
       </c>
       <c r="H17" s="11">
-        <v>16512</v>
+        <v>23083</v>
       </c>
       <c r="I17" s="11">
-        <v>23083</v>
+        <v>20568</v>
       </c>
       <c r="J17" s="11">
-        <v>20568</v>
+        <v>20034</v>
       </c>
       <c r="K17" s="11">
-        <v>20034</v>
+        <v>20039</v>
       </c>
       <c r="L17" s="11">
-        <v>20039</v>
+        <v>42258</v>
       </c>
       <c r="M17" s="11">
-        <v>42258</v>
+        <v>41113</v>
       </c>
       <c r="N17" s="11">
-        <v>41113</v>
+        <v>30341</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
@@ -1067,34 +1032,34 @@
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>15287</v>
+        <v>-5410</v>
       </c>
       <c r="F19" s="11">
-        <v>-5410</v>
+        <v>24708</v>
       </c>
       <c r="G19" s="11">
-        <v>24708</v>
+        <v>788070</v>
       </c>
       <c r="H19" s="11">
-        <v>788070</v>
+        <v>266155</v>
       </c>
       <c r="I19" s="11">
-        <v>266155</v>
+        <v>166230</v>
       </c>
       <c r="J19" s="11">
-        <v>166230</v>
+        <v>75670</v>
       </c>
       <c r="K19" s="11">
-        <v>75670</v>
+        <v>136214</v>
       </c>
       <c r="L19" s="11">
-        <v>136214</v>
+        <v>104716</v>
       </c>
       <c r="M19" s="11">
-        <v>104716</v>
+        <v>-7835</v>
       </c>
       <c r="N19" s="11">
-        <v>-7835</v>
+        <v>19440</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
@@ -1104,34 +1069,34 @@
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>161477</v>
+        <v>133606</v>
       </c>
       <c r="F20" s="13">
-        <v>133606</v>
+        <v>160332</v>
       </c>
       <c r="G20" s="13">
-        <v>160332</v>
+        <v>432882</v>
       </c>
       <c r="H20" s="13">
-        <v>432882</v>
+        <v>290069</v>
       </c>
       <c r="I20" s="13">
-        <v>290069</v>
+        <v>190156</v>
       </c>
       <c r="J20" s="13">
-        <v>190156</v>
+        <v>94076</v>
       </c>
       <c r="K20" s="13">
-        <v>94076</v>
+        <v>158693</v>
       </c>
       <c r="L20" s="13">
-        <v>158693</v>
+        <v>147803</v>
       </c>
       <c r="M20" s="13">
-        <v>147803</v>
+        <v>187732</v>
       </c>
       <c r="N20" s="13">
-        <v>187732</v>
+        <v>709440</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
@@ -1238,34 +1203,34 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="F26" s="9">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G26" s="9">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="H26" s="9">
+        <v>431</v>
+      </c>
+      <c r="I26" s="9">
+        <v>71</v>
+      </c>
+      <c r="J26" s="9">
         <v>410</v>
       </c>
-      <c r="I26" s="9">
-        <v>431</v>
-      </c>
-      <c r="J26" s="9">
-        <v>71</v>
-      </c>
       <c r="K26" s="9">
-        <v>410</v>
+        <v>551</v>
       </c>
       <c r="L26" s="9">
-        <v>551</v>
+        <v>629</v>
       </c>
       <c r="M26" s="9">
-        <v>629</v>
+        <v>574</v>
       </c>
       <c r="N26" s="9">
-        <v>574</v>
+        <v>579</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
@@ -1275,34 +1240,34 @@
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G27" s="11">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="H27" s="11">
+        <v>38</v>
+      </c>
+      <c r="I27" s="11">
+        <v>406</v>
+      </c>
+      <c r="J27" s="11">
         <v>66</v>
       </c>
-      <c r="I27" s="11">
-        <v>38</v>
-      </c>
-      <c r="J27" s="11">
-        <v>406</v>
-      </c>
       <c r="K27" s="11">
+        <v>144</v>
+      </c>
+      <c r="L27" s="11">
         <v>66</v>
       </c>
-      <c r="L27" s="11">
+      <c r="M27" s="11">
+        <v>141</v>
+      </c>
+      <c r="N27" s="11">
         <v>144</v>
-      </c>
-      <c r="M27" s="11">
-        <v>66</v>
-      </c>
-      <c r="N27" s="11">
-        <v>141</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">

--- a/database/industries/siman/save/official/quarterly.xlsx
+++ b/database/industries/siman/save/official/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\save\official\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\save\official\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BC7FD9-89A6-41DA-9313-3BEC983D48CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9420"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -33,9 +34,6 @@
     <t>هزینه های عمومی و اداری</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -61,6 +59,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>هزینه حمل و نقل و انتقال</t>
@@ -108,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -272,7 +273,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -284,7 +285,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -331,6 +332,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -366,6 +384,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -517,17 +552,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -542,7 +577,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -559,7 +594,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -576,7 +611,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -591,7 +626,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -608,7 +643,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -625,7 +660,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -640,7 +675,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -677,7 +712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -692,20 +727,20 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>123320</v>
+        <v>120723</v>
       </c>
       <c r="F10" s="9">
-        <v>120723</v>
+        <v>-372662</v>
       </c>
       <c r="G10" s="9">
-        <v>-372662</v>
+        <v>0</v>
       </c>
       <c r="H10" s="9">
         <v>0</v>
@@ -714,22 +749,22 @@
         <v>0</v>
       </c>
       <c r="J10" s="9">
-        <v>0</v>
+        <v>538109</v>
       </c>
       <c r="K10" s="9">
         <v>0</v>
       </c>
       <c r="L10" s="9">
-        <v>0</v>
+        <v>142896</v>
       </c>
       <c r="M10" s="9">
-        <v>142896</v>
+        <v>664256</v>
       </c>
       <c r="N10" s="9">
-        <v>664256</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>630566</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -766,7 +801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
@@ -803,44 +838,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>115</v>
+        <v>965</v>
       </c>
       <c r="F13" s="11">
-        <v>965</v>
+        <v>343</v>
       </c>
       <c r="G13" s="11">
-        <v>343</v>
+        <v>178</v>
       </c>
       <c r="H13" s="11">
-        <v>178</v>
+        <v>2737</v>
       </c>
       <c r="I13" s="11">
-        <v>2737</v>
+        <v>-2915</v>
       </c>
       <c r="J13" s="11">
-        <v>-2915</v>
+        <v>1292</v>
       </c>
       <c r="K13" s="11">
-        <v>1292</v>
+        <v>30</v>
       </c>
       <c r="L13" s="11">
-        <v>30</v>
+        <v>290</v>
       </c>
       <c r="M13" s="11">
-        <v>290</v>
+        <v>402</v>
       </c>
       <c r="N13" s="11">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -877,118 +912,118 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>122</v>
+        <v>-14</v>
       </c>
       <c r="F15" s="11">
-        <v>-14</v>
+        <v>46</v>
       </c>
       <c r="G15" s="11">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="H15" s="11">
-        <v>82</v>
+        <v>-82</v>
       </c>
       <c r="I15" s="11">
-        <v>-82</v>
+        <v>523</v>
       </c>
       <c r="J15" s="11">
-        <v>523</v>
+        <v>173</v>
       </c>
       <c r="K15" s="11">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="L15" s="11">
-        <v>13</v>
+        <v>8768</v>
       </c>
       <c r="M15" s="11">
-        <v>8768</v>
+        <v>-8671</v>
       </c>
       <c r="N15" s="11">
-        <v>-8671</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>548</v>
+        <v>487</v>
       </c>
       <c r="F16" s="9">
-        <v>487</v>
+        <v>573</v>
       </c>
       <c r="G16" s="9">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H16" s="9">
-        <v>571</v>
+        <v>703</v>
       </c>
       <c r="I16" s="9">
-        <v>703</v>
+        <v>764</v>
       </c>
       <c r="J16" s="9">
-        <v>764</v>
+        <v>975</v>
       </c>
       <c r="K16" s="9">
-        <v>975</v>
+        <v>786</v>
       </c>
       <c r="L16" s="9">
-        <v>786</v>
+        <v>2500</v>
       </c>
       <c r="M16" s="9">
-        <v>2500</v>
+        <v>3672</v>
       </c>
       <c r="N16" s="9">
-        <v>3672</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>14911</v>
+        <v>13463</v>
       </c>
       <c r="F17" s="11">
-        <v>13463</v>
+        <v>16512</v>
       </c>
       <c r="G17" s="11">
-        <v>16512</v>
+        <v>23083</v>
       </c>
       <c r="H17" s="11">
-        <v>23083</v>
+        <v>20568</v>
       </c>
       <c r="I17" s="11">
-        <v>20568</v>
+        <v>20034</v>
       </c>
       <c r="J17" s="11">
-        <v>20034</v>
+        <v>20039</v>
       </c>
       <c r="K17" s="11">
-        <v>20039</v>
+        <v>42258</v>
       </c>
       <c r="L17" s="11">
-        <v>42258</v>
+        <v>41113</v>
       </c>
       <c r="M17" s="11">
-        <v>41113</v>
+        <v>30341</v>
       </c>
       <c r="N17" s="11">
-        <v>30341</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>51325</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>22</v>
       </c>
@@ -1025,81 +1060,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>-5410</v>
+        <v>24708</v>
       </c>
       <c r="F19" s="11">
-        <v>24708</v>
+        <v>788070</v>
       </c>
       <c r="G19" s="11">
-        <v>788070</v>
+        <v>266155</v>
       </c>
       <c r="H19" s="11">
-        <v>266155</v>
+        <v>166230</v>
       </c>
       <c r="I19" s="11">
-        <v>166230</v>
+        <v>75670</v>
       </c>
       <c r="J19" s="11">
-        <v>75670</v>
+        <v>-401895</v>
       </c>
       <c r="K19" s="11">
-        <v>136214</v>
+        <v>104716</v>
       </c>
       <c r="L19" s="11">
-        <v>104716</v>
+        <v>-7835</v>
       </c>
       <c r="M19" s="11">
-        <v>-7835</v>
+        <v>19440</v>
       </c>
       <c r="N19" s="11">
-        <v>19440</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>75334</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>133606</v>
+        <v>160332</v>
       </c>
       <c r="F20" s="13">
-        <v>160332</v>
+        <v>432882</v>
       </c>
       <c r="G20" s="13">
-        <v>432882</v>
+        <v>290069</v>
       </c>
       <c r="H20" s="13">
-        <v>290069</v>
+        <v>190156</v>
       </c>
       <c r="I20" s="13">
-        <v>190156</v>
+        <v>94076</v>
       </c>
       <c r="J20" s="13">
-        <v>94076</v>
+        <v>158693</v>
       </c>
       <c r="K20" s="13">
-        <v>158693</v>
+        <v>147803</v>
       </c>
       <c r="L20" s="13">
-        <v>147803</v>
+        <v>187732</v>
       </c>
       <c r="M20" s="13">
-        <v>187732</v>
+        <v>709440</v>
       </c>
       <c r="N20" s="13">
-        <v>709440</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>761923</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1114,7 +1149,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1129,7 +1164,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1144,7 +1179,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>25</v>
       </c>
@@ -1181,7 +1216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1196,81 +1231,81 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F26" s="9">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="G26" s="9">
+        <v>431</v>
+      </c>
+      <c r="H26" s="9">
+        <v>71</v>
+      </c>
+      <c r="I26" s="9">
         <v>410</v>
       </c>
-      <c r="H26" s="9">
-        <v>431</v>
-      </c>
-      <c r="I26" s="9">
-        <v>71</v>
-      </c>
       <c r="J26" s="9">
-        <v>410</v>
+        <v>557</v>
       </c>
       <c r="K26" s="9">
-        <v>551</v>
+        <v>629</v>
       </c>
       <c r="L26" s="9">
-        <v>629</v>
+        <v>574</v>
       </c>
       <c r="M26" s="9">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="N26" s="9">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F27" s="11">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="G27" s="11">
+        <v>38</v>
+      </c>
+      <c r="H27" s="11">
+        <v>406</v>
+      </c>
+      <c r="I27" s="11">
         <v>66</v>
       </c>
-      <c r="H27" s="11">
-        <v>38</v>
-      </c>
-      <c r="I27" s="11">
-        <v>406</v>
-      </c>
       <c r="J27" s="11">
+        <v>144</v>
+      </c>
+      <c r="K27" s="11">
         <v>66</v>
       </c>
-      <c r="K27" s="11">
+      <c r="L27" s="11">
+        <v>141</v>
+      </c>
+      <c r="M27" s="11">
         <v>144</v>
       </c>
-      <c r="L27" s="11">
-        <v>66</v>
-      </c>
-      <c r="M27" s="11">
-        <v>141</v>
-      </c>
       <c r="N27" s="11">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1285,7 +1320,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1300,7 +1335,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1315,7 +1350,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>

--- a/database/industries/siman/save/official/quarterly.xlsx
+++ b/database/industries/siman/save/official/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\save\official\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\siman\save\official\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BC7FD9-89A6-41DA-9313-3BEC983D48CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030EEC62-4C8D-4C50-A227-0637E97D2351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3384" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="39">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +34,30 @@
     <t>هزینه های عمومی و اداری</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -64,7 +88,16 @@
     <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>هزینه حمل و نقل و انتقال</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>هزینه خدمات پس از فروش</t>
@@ -553,16 +586,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N31"/>
+  <dimension ref="B1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="24" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -576,8 +609,18 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -593,8 +636,18 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -610,8 +663,18 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -625,8 +688,18 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="2:24" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -642,8 +715,18 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6" spans="2:24" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -659,8 +742,18 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -674,8 +767,18 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -711,8 +814,38 @@
       <c r="N8" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -726,58 +859,98 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="9">
+      <c r="E10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>72608</v>
+      </c>
+      <c r="J10" s="9">
+        <v>-72608</v>
+      </c>
+      <c r="K10" s="9">
+        <v>128619</v>
+      </c>
+      <c r="L10" s="9">
+        <v>123320</v>
+      </c>
+      <c r="M10" s="9">
         <v>120723</v>
       </c>
-      <c r="F10" s="9">
+      <c r="N10" s="9">
         <v>-372662</v>
       </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
+      <c r="O10" s="9">
+        <v>0</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0</v>
+      </c>
+      <c r="R10" s="9">
         <v>538109</v>
       </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
+      <c r="S10" s="9">
+        <v>0</v>
+      </c>
+      <c r="T10" s="9">
         <v>142896</v>
       </c>
-      <c r="M10" s="9">
+      <c r="U10" s="9">
         <v>664256</v>
       </c>
-      <c r="N10" s="9">
+      <c r="V10" s="9">
         <v>630566</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="W10" s="9">
+        <v>459186</v>
+      </c>
+      <c r="X10" s="9">
+        <v>124527</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
+      <c r="E11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="H11" s="11">
         <v>0</v>
@@ -800,21 +973,51 @@
       <c r="N11" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O11" s="11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>0</v>
+      </c>
+      <c r="R11" s="11">
+        <v>0</v>
+      </c>
+      <c r="S11" s="11">
+        <v>0</v>
+      </c>
+      <c r="T11" s="11">
+        <v>0</v>
+      </c>
+      <c r="U11" s="11">
+        <v>0</v>
+      </c>
+      <c r="V11" s="11">
+        <v>0</v>
+      </c>
+      <c r="W11" s="11">
+        <v>0</v>
+      </c>
+      <c r="X11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
+      <c r="E12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="H12" s="9">
         <v>0</v>
@@ -837,58 +1040,118 @@
       <c r="N12" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O12" s="9">
+        <v>0</v>
+      </c>
+      <c r="P12" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>0</v>
+      </c>
+      <c r="R12" s="9">
+        <v>0</v>
+      </c>
+      <c r="S12" s="9">
+        <v>0</v>
+      </c>
+      <c r="T12" s="9">
+        <v>0</v>
+      </c>
+      <c r="U12" s="9">
+        <v>0</v>
+      </c>
+      <c r="V12" s="9">
+        <v>0</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0</v>
+      </c>
+      <c r="X12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="11">
+      <c r="E13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2011</v>
+      </c>
+      <c r="I13" s="11">
+        <v>339</v>
+      </c>
+      <c r="J13" s="11">
+        <v>539</v>
+      </c>
+      <c r="K13" s="11">
+        <v>290</v>
+      </c>
+      <c r="L13" s="11">
+        <v>115</v>
+      </c>
+      <c r="M13" s="11">
         <v>965</v>
       </c>
-      <c r="F13" s="11">
+      <c r="N13" s="11">
         <v>343</v>
       </c>
-      <c r="G13" s="11">
+      <c r="O13" s="11">
         <v>178</v>
       </c>
-      <c r="H13" s="11">
+      <c r="P13" s="11">
         <v>2737</v>
       </c>
-      <c r="I13" s="11">
+      <c r="Q13" s="11">
         <v>-2915</v>
       </c>
-      <c r="J13" s="11">
+      <c r="R13" s="11">
         <v>1292</v>
       </c>
-      <c r="K13" s="11">
+      <c r="S13" s="11">
         <v>30</v>
       </c>
-      <c r="L13" s="11">
+      <c r="T13" s="11">
         <v>290</v>
       </c>
-      <c r="M13" s="11">
+      <c r="U13" s="11">
         <v>402</v>
       </c>
-      <c r="N13" s="11">
+      <c r="V13" s="11">
         <v>2426</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="W13" s="11">
+        <v>624</v>
+      </c>
+      <c r="X13" s="11">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
+      <c r="E14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="H14" s="9">
         <v>0</v>
@@ -911,132 +1174,252 @@
       <c r="N14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O14" s="9">
+        <v>0</v>
+      </c>
+      <c r="P14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0</v>
+      </c>
+      <c r="R14" s="9">
+        <v>0</v>
+      </c>
+      <c r="S14" s="9">
+        <v>0</v>
+      </c>
+      <c r="T14" s="9">
+        <v>0</v>
+      </c>
+      <c r="U14" s="9">
+        <v>0</v>
+      </c>
+      <c r="V14" s="9">
+        <v>0</v>
+      </c>
+      <c r="W14" s="9">
+        <v>0</v>
+      </c>
+      <c r="X14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="11">
+      <c r="E15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="11">
+        <v>173</v>
+      </c>
+      <c r="I15" s="11">
+        <v>82</v>
+      </c>
+      <c r="J15" s="11">
+        <v>26</v>
+      </c>
+      <c r="K15" s="11">
+        <v>16</v>
+      </c>
+      <c r="L15" s="11">
+        <v>122</v>
+      </c>
+      <c r="M15" s="11">
         <v>-14</v>
       </c>
-      <c r="F15" s="11">
+      <c r="N15" s="11">
         <v>46</v>
       </c>
-      <c r="G15" s="11">
+      <c r="O15" s="11">
         <v>82</v>
       </c>
-      <c r="H15" s="11">
+      <c r="P15" s="11">
         <v>-82</v>
       </c>
-      <c r="I15" s="11">
+      <c r="Q15" s="11">
         <v>523</v>
       </c>
-      <c r="J15" s="11">
+      <c r="R15" s="11">
         <v>173</v>
       </c>
-      <c r="K15" s="11">
+      <c r="S15" s="11">
         <v>13</v>
       </c>
-      <c r="L15" s="11">
+      <c r="T15" s="11">
         <v>8768</v>
       </c>
-      <c r="M15" s="11">
+      <c r="U15" s="11">
         <v>-8671</v>
       </c>
-      <c r="N15" s="11">
+      <c r="V15" s="11">
         <v>111</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="W15" s="11">
+        <v>439</v>
+      </c>
+      <c r="X15" s="11">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="9">
+      <c r="E16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="9">
+        <v>1402</v>
+      </c>
+      <c r="I16" s="9">
+        <v>640</v>
+      </c>
+      <c r="J16" s="9">
+        <v>614</v>
+      </c>
+      <c r="K16" s="9">
+        <v>590</v>
+      </c>
+      <c r="L16" s="9">
+        <v>548</v>
+      </c>
+      <c r="M16" s="9">
         <v>487</v>
       </c>
-      <c r="F16" s="9">
+      <c r="N16" s="9">
         <v>573</v>
       </c>
-      <c r="G16" s="9">
+      <c r="O16" s="9">
         <v>571</v>
       </c>
-      <c r="H16" s="9">
+      <c r="P16" s="9">
         <v>703</v>
       </c>
-      <c r="I16" s="9">
+      <c r="Q16" s="9">
         <v>764</v>
       </c>
-      <c r="J16" s="9">
+      <c r="R16" s="9">
         <v>975</v>
       </c>
-      <c r="K16" s="9">
+      <c r="S16" s="9">
         <v>786</v>
       </c>
-      <c r="L16" s="9">
+      <c r="T16" s="9">
         <v>2500</v>
       </c>
-      <c r="M16" s="9">
+      <c r="U16" s="9">
         <v>3672</v>
       </c>
-      <c r="N16" s="9">
+      <c r="V16" s="9">
         <v>2161</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="W16" s="9">
+        <v>2246</v>
+      </c>
+      <c r="X16" s="9">
+        <v>3857</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="11">
+      <c r="E17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="11">
+        <v>29501</v>
+      </c>
+      <c r="I17" s="11">
+        <v>12655</v>
+      </c>
+      <c r="J17" s="11">
+        <v>12419</v>
+      </c>
+      <c r="K17" s="11">
+        <v>16675</v>
+      </c>
+      <c r="L17" s="11">
+        <v>14911</v>
+      </c>
+      <c r="M17" s="11">
         <v>13463</v>
       </c>
-      <c r="F17" s="11">
+      <c r="N17" s="11">
         <v>16512</v>
       </c>
-      <c r="G17" s="11">
+      <c r="O17" s="11">
         <v>23083</v>
       </c>
-      <c r="H17" s="11">
+      <c r="P17" s="11">
         <v>20568</v>
       </c>
-      <c r="I17" s="11">
+      <c r="Q17" s="11">
         <v>20034</v>
       </c>
-      <c r="J17" s="11">
+      <c r="R17" s="11">
         <v>20039</v>
       </c>
-      <c r="K17" s="11">
+      <c r="S17" s="11">
         <v>42258</v>
       </c>
-      <c r="L17" s="11">
+      <c r="T17" s="11">
         <v>41113</v>
       </c>
-      <c r="M17" s="11">
+      <c r="U17" s="11">
         <v>30341</v>
       </c>
-      <c r="N17" s="11">
+      <c r="V17" s="11">
         <v>51325</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="W17" s="11">
+        <v>73108</v>
+      </c>
+      <c r="X17" s="11">
+        <v>147461</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0</v>
+      <c r="E18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="H18" s="9">
         <v>0</v>
@@ -1059,82 +1442,172 @@
       <c r="N18" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O18" s="9">
+        <v>0</v>
+      </c>
+      <c r="P18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0</v>
+      </c>
+      <c r="R18" s="9">
+        <v>0</v>
+      </c>
+      <c r="S18" s="9">
+        <v>0</v>
+      </c>
+      <c r="T18" s="9">
+        <v>0</v>
+      </c>
+      <c r="U18" s="9">
+        <v>0</v>
+      </c>
+      <c r="V18" s="9">
+        <v>0</v>
+      </c>
+      <c r="W18" s="9">
+        <v>0</v>
+      </c>
+      <c r="X18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="11">
+      <c r="E19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="11">
+        <v>92101</v>
+      </c>
+      <c r="I19" s="11">
+        <v>-57716</v>
+      </c>
+      <c r="J19" s="11">
+        <v>228823</v>
+      </c>
+      <c r="K19" s="11">
+        <v>15287</v>
+      </c>
+      <c r="L19" s="11">
+        <v>-5410</v>
+      </c>
+      <c r="M19" s="11">
         <v>24708</v>
       </c>
-      <c r="F19" s="11">
+      <c r="N19" s="11">
         <v>788070</v>
       </c>
-      <c r="G19" s="11">
+      <c r="O19" s="11">
         <v>266155</v>
       </c>
-      <c r="H19" s="11">
+      <c r="P19" s="11">
         <v>166230</v>
       </c>
-      <c r="I19" s="11">
+      <c r="Q19" s="11">
         <v>75670</v>
       </c>
-      <c r="J19" s="11">
+      <c r="R19" s="11">
         <v>-401895</v>
       </c>
-      <c r="K19" s="11">
+      <c r="S19" s="11">
         <v>104716</v>
       </c>
-      <c r="L19" s="11">
+      <c r="T19" s="11">
         <v>-7835</v>
       </c>
-      <c r="M19" s="11">
+      <c r="U19" s="11">
         <v>19440</v>
       </c>
-      <c r="N19" s="11">
+      <c r="V19" s="11">
         <v>75334</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="W19" s="11">
+        <v>72573</v>
+      </c>
+      <c r="X19" s="11">
+        <v>110057</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
+        <v>0</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0</v>
+      </c>
+      <c r="H20" s="13">
+        <v>125188</v>
+      </c>
+      <c r="I20" s="13">
+        <v>28608</v>
+      </c>
+      <c r="J20" s="13">
+        <v>169813</v>
+      </c>
+      <c r="K20" s="13">
+        <v>161477</v>
+      </c>
+      <c r="L20" s="13">
+        <v>133606</v>
+      </c>
+      <c r="M20" s="13">
         <v>160332</v>
       </c>
-      <c r="F20" s="13">
+      <c r="N20" s="13">
         <v>432882</v>
       </c>
-      <c r="G20" s="13">
+      <c r="O20" s="13">
         <v>290069</v>
       </c>
-      <c r="H20" s="13">
+      <c r="P20" s="13">
         <v>190156</v>
       </c>
-      <c r="I20" s="13">
+      <c r="Q20" s="13">
         <v>94076</v>
       </c>
-      <c r="J20" s="13">
+      <c r="R20" s="13">
         <v>158693</v>
       </c>
-      <c r="K20" s="13">
+      <c r="S20" s="13">
         <v>147803</v>
       </c>
-      <c r="L20" s="13">
+      <c r="T20" s="13">
         <v>187732</v>
       </c>
-      <c r="M20" s="13">
+      <c r="U20" s="13">
         <v>709440</v>
       </c>
-      <c r="N20" s="13">
+      <c r="V20" s="13">
         <v>761923</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="W20" s="13">
+        <v>608176</v>
+      </c>
+      <c r="X20" s="13">
+        <v>385762</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1148,8 +1621,18 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1163,8 +1646,18 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1178,10 +1671,20 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+    </row>
+    <row r="24" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1215,8 +1718,38 @@
       <c r="N24" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X24" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1230,82 +1763,152 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="9">
+      <c r="E26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="9">
+        <v>422</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="9">
+        <v>419</v>
+      </c>
+      <c r="I26" s="9">
+        <v>408</v>
+      </c>
+      <c r="J26" s="9">
+        <v>409</v>
+      </c>
+      <c r="K26" s="9">
+        <v>395</v>
+      </c>
+      <c r="L26" s="9">
+        <v>400</v>
+      </c>
+      <c r="M26" s="9">
         <v>398</v>
       </c>
-      <c r="F26" s="9">
+      <c r="N26" s="9">
         <v>410</v>
       </c>
-      <c r="G26" s="9">
+      <c r="O26" s="9">
         <v>431</v>
       </c>
-      <c r="H26" s="9">
+      <c r="P26" s="9">
         <v>71</v>
       </c>
-      <c r="I26" s="9">
+      <c r="Q26" s="9">
         <v>410</v>
       </c>
-      <c r="J26" s="9">
+      <c r="R26" s="9">
         <v>557</v>
       </c>
-      <c r="K26" s="9">
+      <c r="S26" s="9">
         <v>629</v>
       </c>
-      <c r="L26" s="9">
+      <c r="T26" s="9">
         <v>574</v>
       </c>
-      <c r="M26" s="9">
+      <c r="U26" s="9">
         <v>579</v>
       </c>
-      <c r="N26" s="9">
+      <c r="V26" s="9">
         <v>580</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="W26" s="9">
+        <v>592</v>
+      </c>
+      <c r="X26" s="9">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="11">
+      <c r="E27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="11">
+        <v>87</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="11">
+        <v>86</v>
+      </c>
+      <c r="I27" s="11">
+        <v>84</v>
+      </c>
+      <c r="J27" s="11">
+        <v>86</v>
+      </c>
+      <c r="K27" s="11">
+        <v>86</v>
+      </c>
+      <c r="L27" s="11">
+        <v>82</v>
+      </c>
+      <c r="M27" s="11">
         <v>83</v>
       </c>
-      <c r="F27" s="11">
+      <c r="N27" s="11">
         <v>66</v>
       </c>
-      <c r="G27" s="11">
+      <c r="O27" s="11">
         <v>38</v>
       </c>
-      <c r="H27" s="11">
+      <c r="P27" s="11">
         <v>406</v>
       </c>
-      <c r="I27" s="11">
+      <c r="Q27" s="11">
         <v>66</v>
       </c>
-      <c r="J27" s="11">
+      <c r="R27" s="11">
         <v>144</v>
       </c>
-      <c r="K27" s="11">
+      <c r="S27" s="11">
         <v>66</v>
       </c>
-      <c r="L27" s="11">
+      <c r="T27" s="11">
         <v>141</v>
       </c>
-      <c r="M27" s="11">
+      <c r="U27" s="11">
         <v>144</v>
       </c>
-      <c r="N27" s="11">
+      <c r="V27" s="11">
         <v>157</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="W27" s="11">
+        <v>157</v>
+      </c>
+      <c r="X27" s="11">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1319,8 +1922,18 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1334,8 +1947,18 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1349,8 +1972,18 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1364,6 +1997,16 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
